--- a/FOV_of_Interest.xlsx
+++ b/FOV_of_Interest.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
   <si>
     <t xml:space="preserve">Strong Shocks (RREs)</t>
   </si>
@@ -34,6 +34,12 @@
     <t xml:space="preserve">Weak Reverse Shocks (RBEs)</t>
   </si>
   <si>
+    <t xml:space="preserve">FOV Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
     <t xml:space="preserve">662-712</t>
   </si>
   <si>
@@ -49,6 +55,9 @@
     <t xml:space="preserve">62-67</t>
   </si>
   <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
     <t xml:space="preserve">520-570</t>
   </si>
   <si>
@@ -67,6 +76,36 @@
     <t xml:space="preserve">30-35, 36-41</t>
   </si>
   <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">640-690</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000-1050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">915-965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1072-1122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31-45, 50-75, 80-99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-20, 23-27, 30-44, 46-99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
     <t xml:space="preserve">486-536</t>
   </si>
   <si>
@@ -85,19 +124,7 @@
     <t xml:space="preserve">5-9, 40-43, 61-65</t>
   </si>
   <si>
-    <t xml:space="preserve">915-965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1072-1122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31-45, 50-75, 80-99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0-20, 23-27, 30-44, 46-99</t>
+    <t xml:space="preserve">F</t>
   </si>
   <si>
     <t xml:space="preserve">582-632</t>
@@ -227,166 +254,148 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M9" activeCellId="0" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.04"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="34.05"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="27.09"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="34.06"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="I1" s="3" t="s">
+      <c r="H1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="M1" s="3" t="s">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="N1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="D2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="H2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>6</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>5</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>4</v>
+      <c r="H3" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>9</v>
+      <c r="L4" s="0" t="s">
+        <v>16</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="0" t="s">
         <v>20</v>
       </c>
     </row>
@@ -400,72 +409,119 @@
       <c r="C6" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>21</v>
+      <c r="D6" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>21</v>
+      <c r="G6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>21</v>
+      <c r="K6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>26</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="O6" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>27</v>
+      <c r="H7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>28</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="E1:G2"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="M1:O2"/>
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="F1:H2"/>
+    <mergeCell ref="J1:L2"/>
+    <mergeCell ref="N1:P2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/FOV_of_Interest.xlsx
+++ b/FOV_of_Interest.xlsx
@@ -157,7 +157,7 @@
     <t xml:space="preserve">J</t>
   </si>
   <si>
-    <t xml:space="preserve">520-570</t>
+    <t xml:space="preserve">535-585</t>
   </si>
   <si>
     <t xml:space="preserve">715-765</t>
@@ -173,7 +173,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -194,11 +194,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -249,7 +244,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -259,10 +254,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -290,10 +281,10 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
@@ -309,11 +300,11 @@
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
       <c r="N1" s="2" t="s">
         <v>2</v>
       </c>
@@ -414,10 +405,10 @@
       <c r="G5" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -441,7 +432,7 @@
         <v>25</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>16</v>
@@ -460,7 +451,7 @@
       <c r="B7" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="0" t="s">
@@ -475,10 +466,10 @@
       <c r="G7" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P7" s="0" t="s">
@@ -594,10 +585,10 @@
         <v>12</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -608,7 +599,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/FOV_of_Interest.xlsx
+++ b/FOV_of_Interest.xlsx
@@ -281,10 +281,10 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
@@ -377,10 +377,10 @@
         <v>16</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -400,10 +400,10 @@
         <v>20</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>12</v>
@@ -429,10 +429,10 @@
         <v>35</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>16</v>
@@ -461,10 +461,10 @@
         <v>15</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>20</v>
@@ -493,10 +493,10 @@
         <v>59</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -516,10 +516,10 @@
         <v>97</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -539,10 +539,10 @@
         <v>11</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -562,10 +562,10 @@
         <v>11</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -585,10 +585,10 @@
         <v>12</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/FOV_of_Interest.xlsx
+++ b/FOV_of_Interest.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
   <si>
     <t xml:space="preserve">Strong Shocks</t>
   </si>
@@ -31,7 +31,10 @@
     <t xml:space="preserve">Weak Reverse Shocks (RBEs)</t>
   </si>
   <si>
-    <t xml:space="preserve">FOV Name</t>
+    <t xml:space="preserve">Old FOV Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New FOV Name</t>
   </si>
   <si>
     <t xml:space="preserve">t</t>
@@ -56,6 +59,9 @@
   </si>
   <si>
     <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A</t>
   </si>
   <si>
     <t xml:space="preserve">915-965</t>
@@ -278,62 +284,67 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="34.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="27.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="34.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="H1" s="2"/>
+      <c r="O1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="2"/>
       <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="0" t="s">
+        <v>4</v>
+      </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="0" t="s">
-        <v>4</v>
-      </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="0" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="2"/>
+      <c r="H2" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>8</v>
@@ -344,258 +355,288 @@
       <c r="D3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="G3" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="H3" s="0" t="n">
         <v>18</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>8</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="P3" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>16</v>
       </c>
       <c r="G4" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="H4" s="0" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>23</v>
+      <c r="Q6" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G7" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="G7" s="0" t="n">
+      <c r="H7" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="O7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P7" s="0" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>59</v>
+        <v>33</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>28</v>
       </c>
+      <c r="H8" s="0" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="G9" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="H9" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="G10" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="H10" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="G11" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="H11" s="0" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="0" t="n">
         <v>12</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>28</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>28</v>
       </c>
+      <c r="H12" s="0" t="n">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B1:D2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="N1:P2"/>
+    <mergeCell ref="C1:E2"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="O1:Q2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/FOV_of_Interest.xlsx
+++ b/FOV_of_Interest.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
   <si>
     <t xml:space="preserve">Strong Shocks</t>
   </si>
@@ -37,6 +37,9 @@
     <t xml:space="preserve">New FOV Name</t>
   </si>
   <si>
+    <t xml:space="preserve">Sort ROI Name</t>
+  </si>
+  <si>
     <t xml:space="preserve">t</t>
   </si>
   <si>
@@ -118,6 +121,9 @@
     <t xml:space="preserve">F</t>
   </si>
   <si>
+    <t xml:space="preserve">G</t>
+  </si>
+  <si>
     <t xml:space="preserve">455-505</t>
   </si>
   <si>
@@ -125,9 +131,6 @@
   </si>
   <si>
     <t xml:space="preserve">57-64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G</t>
   </si>
   <si>
     <t xml:space="preserve">95-145</t>
@@ -202,7 +205,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,6 +216,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
         <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF069A2E"/>
+        <bgColor rgb="FF339966"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8D281E"/>
+        <bgColor rgb="FF993366"/>
       </patternFill>
     </fill>
   </fills>
@@ -250,7 +265,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -260,6 +275,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -276,6 +299,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF069A2E"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF8D281E"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -284,40 +367,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="34.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="27.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="34.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="O1" s="2" t="s">
+      <c r="I1" s="2"/>
+      <c r="P1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -326,317 +410,350 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="0" t="s">
+        <v>5</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="0" t="s">
-        <v>5</v>
-      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="2"/>
+      <c r="I2" s="0" t="s">
+        <v>8</v>
+      </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="H3" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="I3" s="3" t="n">
         <v>18</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>9</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="Q3" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="H4" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="I4" s="4" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="0" t="s">
+      <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="H5" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="I5" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="O5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="Q5" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="I6" s="3" t="n">
         <v>21</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>19</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="0" t="s">
+      <c r="A7" s="3" t="s">
         <v>27</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="G7" s="0" t="n">
+      <c r="F7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="H7" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="I7" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>97</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="I9" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="O7" s="3" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="H10" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="P7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q7" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="0" t="s">
+      <c r="I10" s="3" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="I12" s="3" t="n">
         <v>26</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>97</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C1:E2"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="O1:Q2"/>
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="P1:R2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
